--- a/data/input/employee_absence_data_36.xlsx
+++ b/data/input/employee_absence_data_36.xlsx
@@ -464,74 +464,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36562</v>
+        <v>63747</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ester Andrade</t>
+          <t>Maria Liz da Cruz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45083</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>5053.83</v>
+        <v>8755.860000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3857</v>
+        <v>19394</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Srta. Ana Laura Souza</t>
+          <t>José Pastor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>10464.49</v>
+        <v>5384.47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>84113</v>
+        <v>82140</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marcos Vinicius da Conceição</t>
+          <t>Pietra Leão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,85 +540,85 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45105</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>2628.67</v>
+        <v>2320.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>75125</v>
+        <v>58592</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Mariane Novais</t>
+          <t>Rael Cavalcante</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45078</v>
+        <v>45096</v>
       </c>
       <c r="G5" t="n">
-        <v>6673.52</v>
+        <v>2851.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19775</v>
+        <v>91812</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Beatriz Novaes</t>
+          <t>Sr. Bryan Mendes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45087</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>11492.53</v>
+        <v>3776.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>62593</v>
+        <v>17994</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Juliana da Paz</t>
+          <t>Luiz Gustavo Brito</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,129 +627,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45081</v>
+        <v>45079</v>
       </c>
       <c r="G7" t="n">
-        <v>9885.1</v>
+        <v>7738.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28104</v>
+        <v>70745</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Giovanna Cardoso</t>
+          <t>Luiz Fernando da Cruz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45098</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>7799.91</v>
+        <v>4953.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>42958</v>
+        <v>35678</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Daniela da Cunha</t>
+          <t>Anthony Gabriel Cardoso</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45096</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>7468.86</v>
+        <v>5695.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>38249</v>
+        <v>49626</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gabrielly Machado</t>
+          <t>Milena Melo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45091</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>6963.39</v>
+        <v>7780.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91076</v>
+        <v>3233</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marcelo da Cruz</t>
+          <t>Maria Flor Guerra</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45092</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>7906.92</v>
+        <v>8448.85</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_36.xlsx
+++ b/data/input/employee_absence_data_36.xlsx
@@ -464,74 +464,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>63747</v>
+        <v>90705</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maria Liz da Cruz</t>
+          <t>Clarice Mendes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45094</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>8755.860000000001</v>
+        <v>4875.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>19394</v>
+        <v>76324</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>José Pastor</t>
+          <t>João Vitor Almeida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45085</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>5384.47</v>
+        <v>2047.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82140</v>
+        <v>56110</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pietra Leão</t>
+          <t>Sr. Liam da Rosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,53 +543,53 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45097</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>2320.22</v>
+        <v>5223.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58592</v>
+        <v>92763</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rael Cavalcante</t>
+          <t>Sra. Juliana Duarte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45096</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>2851.41</v>
+        <v>4654.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91812</v>
+        <v>3721</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Bryan Mendes</t>
+          <t>Henry Gabriel Oliveira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,51 +598,51 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45091</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>3776.62</v>
+        <v>8479.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17994</v>
+        <v>96593</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Brito</t>
+          <t>Vitor Cassiano</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45079</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>7738.09</v>
+        <v>5221.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70745</v>
+        <v>31726</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Fernando da Cruz</t>
+          <t>Agatha Costela</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -656,100 +656,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45093</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>4953.62</v>
+        <v>2932.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>35678</v>
+        <v>75883</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Anthony Gabriel Cardoso</t>
+          <t>João Pedro Nunes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45088</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>5695.01</v>
+        <v>6024.03</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>49626</v>
+        <v>11838</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Milena Melo</t>
+          <t>Mariah Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45094</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>7780.18</v>
+        <v>3564.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3233</v>
+        <v>29132</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Flor Guerra</t>
+          <t>Calebe Duarte</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45103</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>8448.85</v>
+        <v>4633.74</v>
       </c>
     </row>
   </sheetData>
